--- a/data/trans_orig/P14B23_2016_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B23_2016_2023-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>20485</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13617</v>
+        <v>12616</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31282</v>
+        <v>31059</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02715529164569282</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0180511150412552</v>
+        <v>0.01672395264861177</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04146919694620286</v>
+        <v>0.04117270382172662</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>78</v>
@@ -763,19 +763,19 @@
         <v>87225</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>70695</v>
+        <v>70884</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>107207</v>
+        <v>108213</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08769363518118395</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07107454021497067</v>
+        <v>0.07126452128589902</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1077830108708818</v>
+        <v>0.1087940626725856</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>100</v>
@@ -784,19 +784,19 @@
         <v>107710</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>87062</v>
+        <v>88104</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>129051</v>
+        <v>129989</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06158344484445449</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.049778158281355</v>
+        <v>0.05037378675683016</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07378531034910674</v>
+        <v>0.0743216151234528</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>733862</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>723065</v>
+        <v>723288</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>740730</v>
+        <v>741731</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9728447083543071</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9585308030537972</v>
+        <v>0.9588272961782733</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9819488849587449</v>
+        <v>0.9832760473513882</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>814</v>
@@ -834,19 +834,19 @@
         <v>907435</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>887453</v>
+        <v>886447</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>923965</v>
+        <v>923776</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.912306364818816</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8922169891291183</v>
+        <v>0.8912059373274144</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9289254597850294</v>
+        <v>0.928735478714101</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1554</v>
@@ -855,19 +855,19 @@
         <v>1641297</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1619956</v>
+        <v>1619018</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1661945</v>
+        <v>1660903</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9384165551555456</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9262146896508929</v>
+        <v>0.9256783848765473</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9502218417186449</v>
+        <v>0.9496262132431702</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>24094</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14896</v>
+        <v>14932</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37262</v>
+        <v>37008</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01160373312686464</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007173951949445242</v>
+        <v>0.007191192132153368</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01794562673439492</v>
+        <v>0.0178233413634129</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -980,19 +980,19 @@
         <v>61767</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47479</v>
+        <v>46947</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78821</v>
+        <v>80304</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03108069197508792</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02389087930094264</v>
+        <v>0.0236230988941792</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03966180289105089</v>
+        <v>0.04040829305083625</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -1001,19 +1001,19 @@
         <v>85861</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68658</v>
+        <v>68107</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>106198</v>
+        <v>106629</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02112878025549059</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01689536902188449</v>
+        <v>0.01675992717667366</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02613332411785367</v>
+        <v>0.02623935146245353</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>2052291</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2039123</v>
+        <v>2039377</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2061489</v>
+        <v>2061453</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9883962668731353</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9820543732656051</v>
+        <v>0.9821766586365871</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9928260480505547</v>
+        <v>0.9928088078678466</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1851</v>
@@ -1051,19 +1051,19 @@
         <v>1925556</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1908502</v>
+        <v>1907019</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1939844</v>
+        <v>1940376</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9689193080249121</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9603381971089487</v>
+        <v>0.9595917069491635</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9761091206990566</v>
+        <v>0.9763769011058205</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3781</v>
@@ -1072,19 +1072,19 @@
         <v>3977847</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3957510</v>
+        <v>3957079</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3995050</v>
+        <v>3995601</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9788712197445094</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9738666758821464</v>
+        <v>0.9737606485375465</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9831046309781155</v>
+        <v>0.9832400728233264</v>
       </c>
     </row>
     <row r="9">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6225</v>
+        <v>6696</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003524554562919603</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01138185075860429</v>
+        <v>0.01224386815000235</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1197,19 +1197,19 @@
         <v>5971</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13198</v>
+        <v>14203</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01087262157246562</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003660464107152311</v>
+        <v>0.003631751201831204</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02403418007994612</v>
+        <v>0.025864830225757</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1218,19 +1218,19 @@
         <v>7898</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3230</v>
+        <v>3187</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15746</v>
+        <v>16547</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007206144269245364</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002947026265904198</v>
+        <v>0.002907689726804856</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01436610643059117</v>
+        <v>0.01509749704171569</v>
       </c>
     </row>
     <row r="11">
@@ -1247,7 +1247,7 @@
         <v>544958</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>540661</v>
+        <v>540190</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>546886</v>
@@ -1256,7 +1256,7 @@
         <v>0.9964754454370804</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9886181492413982</v>
+        <v>0.9877561318499974</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1268,19 +1268,19 @@
         <v>543169</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>535942</v>
+        <v>534937</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>547130</v>
+        <v>547146</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9891273784275344</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9759658199200538</v>
+        <v>0.9741351697742426</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9963395358928476</v>
+        <v>0.9963682487981688</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1020</v>
@@ -1289,19 +1289,19 @@
         <v>1088129</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1080281</v>
+        <v>1079480</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1092797</v>
+        <v>1092840</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9927938557307546</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9856338935694088</v>
+        <v>0.9849025029582843</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9970529737340958</v>
+        <v>0.9970923102731951</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>46506</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33551</v>
+        <v>33595</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62513</v>
+        <v>61776</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01376883196866463</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009933342494344702</v>
+        <v>0.009946489902921156</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01850807616741014</v>
+        <v>0.01828978457064087</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>139</v>
@@ -1414,19 +1414,19 @@
         <v>154963</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>131656</v>
+        <v>130429</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>181923</v>
+        <v>182321</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04388499381091674</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03728455583598077</v>
+        <v>0.03693701480180476</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05151977657701484</v>
+        <v>0.05163264066367277</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>185</v>
@@ -1435,19 +1435,19 @@
         <v>201469</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>173793</v>
+        <v>174138</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>227610</v>
+        <v>232092</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02916148928517467</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0251555889475809</v>
+        <v>0.02520545794506068</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03294515322047758</v>
+        <v>0.03359399663226513</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>3331112</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3315105</v>
+        <v>3315842</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3344067</v>
+        <v>3344023</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9862311680313354</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9814919238325899</v>
+        <v>0.9817102154293587</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9900666575056553</v>
+        <v>0.9900535100970788</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3186</v>
@@ -1485,19 +1485,19 @@
         <v>3376161</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3349201</v>
+        <v>3348803</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3399468</v>
+        <v>3400695</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9561150061890833</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9484802234229851</v>
+        <v>0.9483673593363272</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9627154441640191</v>
+        <v>0.9630629851981952</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6355</v>
@@ -1506,19 +1506,19 @@
         <v>6707272</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6681131</v>
+        <v>6676649</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6734948</v>
+        <v>6734603</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9708385107148253</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9670548467795228</v>
+        <v>0.9664060033677349</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9748444110524193</v>
+        <v>0.9747945420549395</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>36470</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26689</v>
+        <v>26866</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48931</v>
+        <v>48535</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06322725313205389</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04627073401274476</v>
+        <v>0.04657706063028078</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08483189879189211</v>
+        <v>0.08414539355769612</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>153</v>
@@ -1870,19 +1870,19 @@
         <v>91427</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>78597</v>
+        <v>77003</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>107163</v>
+        <v>107236</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1113179096115099</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09569616116022168</v>
+        <v>0.09375591532219869</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1304771309474668</v>
+        <v>0.1305667026199832</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>196</v>
@@ -1891,19 +1891,19 @@
         <v>127897</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>109721</v>
+        <v>110163</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>147085</v>
+        <v>146789</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09147781259995767</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07847775342191232</v>
+        <v>0.07879356023994544</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1052021407754363</v>
+        <v>0.1049902976104735</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>540332</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>527871</v>
+        <v>528267</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>550113</v>
+        <v>549936</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9367727468679463</v>
+        <v>0.9367727468679461</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9151681012081079</v>
+        <v>0.9158546064423039</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9537292659872552</v>
+        <v>0.9534229393697192</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1273</v>
@@ -1941,19 +1941,19 @@
         <v>729888</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>714152</v>
+        <v>714079</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>742718</v>
+        <v>744312</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8886820903884901</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8695228690525333</v>
+        <v>0.8694332973800166</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9043038388397786</v>
+        <v>0.9062440846778013</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1919</v>
@@ -1962,19 +1962,19 @@
         <v>1270220</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1251032</v>
+        <v>1251328</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1288396</v>
+        <v>1287954</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9085221874000424</v>
+        <v>0.9085221874000425</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8947978592245633</v>
+        <v>0.8950097023895265</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9215222465780876</v>
+        <v>0.9212064397600543</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>63055</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47355</v>
+        <v>48018</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81236</v>
+        <v>82478</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02828694551829324</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02124389008762111</v>
+        <v>0.0215410893778629</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03644307870987949</v>
+        <v>0.03700013698609442</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>162</v>
@@ -2087,19 +2087,19 @@
         <v>109232</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93662</v>
+        <v>91948</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>127093</v>
+        <v>127614</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05040249183898251</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04321784372512835</v>
+        <v>0.04242714936828207</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05864374188671053</v>
+        <v>0.05888445196973493</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>222</v>
@@ -2108,19 +2108,19 @@
         <v>172287</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>149056</v>
+        <v>150768</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>198986</v>
+        <v>199133</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03918898282909248</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03390468612376558</v>
+        <v>0.03429409535387648</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04526192379795939</v>
+        <v>0.04529537361848437</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>2166062</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2147881</v>
+        <v>2146639</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2181762</v>
+        <v>2181099</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9717130544817068</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9635569212901204</v>
+        <v>0.9629998630139056</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9787561099123788</v>
+        <v>0.9784589106221373</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2753</v>
@@ -2158,19 +2158,19 @@
         <v>2057968</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2040107</v>
+        <v>2039586</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2073538</v>
+        <v>2075252</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9495975081610175</v>
+        <v>0.9495975081610174</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9413562581132896</v>
+        <v>0.9411155480302652</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9567821562748715</v>
+        <v>0.957572850631718</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4683</v>
@@ -2179,19 +2179,19 @@
         <v>4224031</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4197332</v>
+        <v>4197185</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4247262</v>
+        <v>4245550</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9608110171709074</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9547380762020403</v>
+        <v>0.9547046263815158</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9660953138762346</v>
+        <v>0.9657059046461235</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>18055</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9656</v>
+        <v>10728</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31231</v>
+        <v>32408</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02544791402527035</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01360930294536303</v>
+        <v>0.01512024810824965</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04401895587181837</v>
+        <v>0.0456783369354074</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -2304,19 +2304,19 @@
         <v>20480</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13376</v>
+        <v>13553</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29765</v>
+        <v>30010</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02786840664566912</v>
+        <v>0.02786840664566911</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01820101715119998</v>
+        <v>0.01844296047093162</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04050354300436618</v>
+        <v>0.04083647371812824</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -2325,19 +2325,19 @@
         <v>38535</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26693</v>
+        <v>27917</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54283</v>
+        <v>53342</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02667943865021384</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01848072945951175</v>
+        <v>0.01932824400807154</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03758280098251068</v>
+        <v>0.03693128935652817</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>691428</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>678252</v>
+        <v>677075</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>699827</v>
+        <v>698755</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9745520859747295</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9559810441281807</v>
+        <v>0.9543216630645927</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9863906970546369</v>
+        <v>0.9848797518917505</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>976</v>
@@ -2375,19 +2375,19 @@
         <v>714397</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>705112</v>
+        <v>704867</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>721501</v>
+        <v>721324</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9721315933543307</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9594964569956337</v>
+        <v>0.9591635262818717</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9817989828488002</v>
+        <v>0.9815570395290684</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1640</v>
@@ -2396,19 +2396,19 @@
         <v>1405825</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1390077</v>
+        <v>1391018</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1417667</v>
+        <v>1416443</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9733205613497862</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9624171990174895</v>
+        <v>0.9630687106434718</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9815192705404883</v>
+        <v>0.9806717559919285</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>117579</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>96697</v>
+        <v>96858</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>143358</v>
+        <v>143048</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03344692064923998</v>
+        <v>0.03344692064923997</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0275067769404458</v>
+        <v>0.02755256373803784</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04078002042976685</v>
+        <v>0.04069190798064994</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>343</v>
@@ -2521,19 +2521,19 @@
         <v>221139</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>196820</v>
+        <v>197522</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>244722</v>
+        <v>247989</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05939186517295326</v>
+        <v>0.05939186517295327</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05286030400826552</v>
+        <v>0.05304900373091434</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06572553698715744</v>
+        <v>0.06660295589416666</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>461</v>
@@ -2542,19 +2542,19 @@
         <v>338719</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>306956</v>
+        <v>308059</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>374555</v>
+        <v>374640</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04679212836555798</v>
+        <v>0.046792128365558</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04240431039693644</v>
+        <v>0.04255667558305574</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05174268333893112</v>
+        <v>0.05175451593605811</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>3397823</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3372044</v>
+        <v>3372354</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3418705</v>
+        <v>3418544</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9665530793507601</v>
+        <v>0.96655307935076</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9592199795702333</v>
+        <v>0.95930809201935</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9724932230595543</v>
+        <v>0.9724474362619623</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5002</v>
@@ -2592,19 +2592,19 @@
         <v>3502254</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3478671</v>
+        <v>3475404</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3526573</v>
+        <v>3525871</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9406081348270466</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9342744630128424</v>
+        <v>0.9333970441058332</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9471396959917343</v>
+        <v>0.9469509962690854</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8242</v>
@@ -2613,19 +2613,19 @@
         <v>6900076</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6864240</v>
+        <v>6864155</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6931839</v>
+        <v>6930736</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9532078716344418</v>
+        <v>0.953207871634442</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9482573166610687</v>
+        <v>0.9482454840639417</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9575956896030636</v>
+        <v>0.9574433244169445</v>
       </c>
     </row>
     <row r="15">
